--- a/teleadd-prateek/excelfiles/contact.xlsx
+++ b/teleadd-prateek/excelfiles/contact.xlsx
@@ -76,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
